--- a/Documentacion/Logs de Trabajo real.xlsx
+++ b/Documentacion/Logs de Trabajo real.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -11,15 +11,96 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>tiempo dedicado</t>
+  </si>
+  <si>
+    <t>Tema Ppal donde se trabajó</t>
+  </si>
+  <si>
+    <t>Avances</t>
+  </si>
+  <si>
+    <t>Impedimientos</t>
+  </si>
+  <si>
+    <t>1hs</t>
+  </si>
+  <si>
+    <t>informe final</t>
+  </si>
+  <si>
+    <t>estructurado de informe</t>
+  </si>
+  <si>
+    <t>Armar la estructura del informe. Escribir algo del marco teorico</t>
+  </si>
+  <si>
+    <t>2hs</t>
+  </si>
+  <si>
+    <t>Comienzo</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Falta de una guia para saber sobre que escribir, que temas tocar, etc</t>
+  </si>
+  <si>
+    <t>marco teorico</t>
+  </si>
+  <si>
+    <t>0.5hs</t>
+  </si>
+  <si>
+    <t>Ideas sueltas sobre el marco teorico, definiciones, objetivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion - Se definio comenzar a escribir la introduccion del plan. Se debe terminar para el viernes 3 </t>
+  </si>
+  <si>
+    <t>FACUNDO MATIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACUNDO </t>
+  </si>
+  <si>
+    <t>FACUNDO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,25 +123,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Oficina">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +249,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Oficina">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -132,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -166,9 +318,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Oficina">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,25 +494,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="9"/>
+    <col min="8" max="8" width="11.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>42513</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>42514</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>42522</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -367,12 +818,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
